--- a/uploads/mentahan_data.xlsx
+++ b/uploads/mentahan_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Freelance\Rahmatun Nisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06E55A4-7885-4106-8651-588F452A8913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A92EBA4-245D-453F-8557-E3515DDC8F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7B4D524-BACB-40A1-A27D-4DF6CC7D5DE5}"/>
+    <workbookView xWindow="13290" yWindow="1935" windowWidth="15510" windowHeight="13665" xr2:uid="{A7B4D524-BACB-40A1-A27D-4DF6CC7D5DE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,18 +90,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,15 +414,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F34283-3496-48D6-9C4F-4AD04B24C389}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -435,7 +430,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -443,7 +438,7 @@
       <c r="A2" s="3">
         <v>44197</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="1">
         <v>9749980</v>
       </c>
       <c r="D2" s="2"/>
@@ -453,7 +448,7 @@
       <c r="A3" s="3">
         <v>44228</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="1">
         <v>8454720</v>
       </c>
       <c r="D3" s="2"/>
@@ -463,7 +458,7 @@
       <c r="A4" s="3">
         <v>44256</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="1">
         <v>7927641.7786796</v>
       </c>
       <c r="D4" s="2"/>
@@ -473,7 +468,7 @@
       <c r="A5" s="3">
         <v>44287</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <v>9334944</v>
       </c>
       <c r="D5" s="2"/>
@@ -483,7 +478,7 @@
       <c r="A6" s="3">
         <v>44317</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="1">
         <v>11240298.9</v>
       </c>
       <c r="D6" s="2"/>
@@ -493,7 +488,7 @@
       <c r="A7" s="3">
         <v>44348</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="1">
         <v>9953880.5800000001</v>
       </c>
       <c r="D7" s="2"/>
@@ -503,7 +498,7 @@
       <c r="A8" s="3">
         <v>44378</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1">
         <v>9688156</v>
       </c>
       <c r="D8" s="2"/>
@@ -513,7 +508,7 @@
       <c r="A9" s="3">
         <v>44409</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="1">
         <v>9953306</v>
       </c>
       <c r="D9" s="2"/>
@@ -523,7 +518,7 @@
       <c r="A10" s="3">
         <v>44440</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="1">
         <v>9615500.4737954997</v>
       </c>
       <c r="D10" s="2"/>
@@ -533,7 +528,7 @@
       <c r="A11" s="3">
         <v>44470</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="1">
         <v>9976637</v>
       </c>
       <c r="D11" s="2"/>
@@ -543,7 +538,7 @@
       <c r="A12" s="3">
         <v>44501</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="1">
         <v>9388925</v>
       </c>
       <c r="D12" s="2"/>
@@ -553,7 +548,7 @@
       <c r="A13" s="3">
         <v>44531</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="1">
         <v>9432804.1960000005</v>
       </c>
       <c r="D13" s="2"/>
@@ -563,7 +558,7 @@
       <c r="A14" s="3">
         <v>44562</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>9351451.5969999991</v>
       </c>
       <c r="D14" s="2"/>
@@ -573,7 +568,7 @@
       <c r="A15" s="3">
         <v>44593</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>8617825.7750000004</v>
       </c>
       <c r="D15" s="2"/>
@@ -583,7 +578,7 @@
       <c r="A16" s="3">
         <v>44621</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>9347162.5769999996</v>
       </c>
       <c r="D16" s="2"/>
@@ -593,7 +588,7 @@
       <c r="A17" s="3">
         <v>44652</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>9908930.3220000006</v>
       </c>
       <c r="D17" s="2"/>
@@ -603,7 +598,7 @@
       <c r="A18" s="3">
         <v>44682</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>9742593.9710000008</v>
       </c>
       <c r="D18" s="2"/>
@@ -613,7 +608,7 @@
       <c r="A19" s="3">
         <v>44713</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>10394478.284</v>
       </c>
       <c r="D19" s="2"/>
@@ -623,7 +618,7 @@
       <c r="A20" s="3">
         <v>44743</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>10229169.555</v>
       </c>
       <c r="D20" s="2"/>
@@ -633,7 +628,7 @@
       <c r="A21" s="3">
         <v>44774</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>10318585.634</v>
       </c>
       <c r="D21" s="2"/>
@@ -643,7 +638,7 @@
       <c r="A22" s="3">
         <v>44805</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>10205788.613</v>
       </c>
       <c r="D22" s="2"/>
@@ -653,7 +648,7 @@
       <c r="A23" s="3">
         <v>44835</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>9385825.8330000006</v>
       </c>
       <c r="D23" s="2"/>
@@ -663,7 +658,7 @@
       <c r="A24" s="3">
         <v>44866</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>9303929.4780000001</v>
       </c>
       <c r="D24" s="2"/>
@@ -673,7 +668,7 @@
       <c r="A25" s="3">
         <v>44896</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>9075712.4069999997</v>
       </c>
       <c r="D25" s="2"/>
@@ -683,7 +678,7 @@
       <c r="A26" s="3">
         <v>44927</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>9158824.3289999999</v>
       </c>
       <c r="D26" s="2"/>
@@ -693,7 +688,7 @@
       <c r="A27" s="3">
         <v>44958</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>8535646.2420000006</v>
       </c>
       <c r="D27" s="2"/>
@@ -703,7 +698,7 @@
       <c r="A28" s="3">
         <v>44986</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>9901972.8540000003</v>
       </c>
       <c r="D28" s="2"/>
@@ -713,7 +708,7 @@
       <c r="A29" s="3">
         <v>45017</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>10162695.323999999</v>
       </c>
       <c r="D29" s="2"/>
@@ -723,7 +718,7 @@
       <c r="A30" s="3">
         <v>45047</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>10950164.721000001</v>
       </c>
       <c r="D30" s="2"/>
@@ -733,7 +728,7 @@
       <c r="A31" s="3">
         <v>45078</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>10536704.25</v>
       </c>
       <c r="D31" s="2"/>
@@ -743,7 +738,7 @@
       <c r="A32" s="3">
         <v>45108</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>10858969.231000001</v>
       </c>
       <c r="D32" s="2"/>
@@ -753,7 +748,7 @@
       <c r="A33" s="3">
         <v>45139</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>10882527.481000001</v>
       </c>
       <c r="D33" s="2"/>
@@ -763,7 +758,7 @@
       <c r="A34" s="3">
         <v>45170</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>10319807.847999999</v>
       </c>
       <c r="D34" s="2"/>
@@ -773,7 +768,7 @@
       <c r="A35" s="3">
         <v>45200</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>10325667.964</v>
       </c>
       <c r="D35" s="2"/>
@@ -783,7 +778,7 @@
       <c r="A36" s="3">
         <v>45231</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>9879076.2850000001</v>
       </c>
       <c r="D36" s="2"/>
@@ -793,7 +788,7 @@
       <c r="A37" s="3">
         <v>45261</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>9946481.9470000006</v>
       </c>
       <c r="D37" s="2"/>
@@ -803,7 +798,7 @@
       <c r="A38" s="3">
         <v>45292</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>10102355.607999999</v>
       </c>
       <c r="D38" s="2"/>
@@ -813,7 +808,7 @@
       <c r="A39" s="3">
         <v>45323</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>9702368.9159999993</v>
       </c>
       <c r="D39" s="2"/>
@@ -823,7 +818,7 @@
       <c r="A40" s="3">
         <v>45352</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>11196720.75</v>
       </c>
       <c r="D40" s="2"/>
@@ -833,7 +828,7 @@
       <c r="A41" s="3">
         <v>45383</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>11268532.517999999</v>
       </c>
       <c r="D41" s="2"/>
@@ -843,7 +838,7 @@
       <c r="A42" s="3">
         <v>45413</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <v>11788952.982000001</v>
       </c>
       <c r="D42" s="2"/>
@@ -853,7 +848,7 @@
       <c r="A43" s="3">
         <v>45444</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="4">
         <v>11090566.686000001</v>
       </c>
       <c r="D43" s="2"/>

--- a/uploads/mentahan_data.xlsx
+++ b/uploads/mentahan_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Freelance\Rahmatun Nisa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laulliet\Desktop\Machine Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A92EBA4-245D-453F-8557-E3515DDC8F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692AD0B0-5B87-4299-965A-7A8937D8CABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13290" yWindow="1935" windowWidth="15510" windowHeight="13665" xr2:uid="{A7B4D524-BACB-40A1-A27D-4DF6CC7D5DE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7B4D524-BACB-40A1-A27D-4DF6CC7D5DE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,14 +90,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,14 +421,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F34283-3496-48D6-9C4F-4AD04B24C389}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -430,7 +438,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -438,7 +446,7 @@
       <c r="A2" s="3">
         <v>44197</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>9749980</v>
       </c>
       <c r="D2" s="2"/>
@@ -448,7 +456,7 @@
       <c r="A3" s="3">
         <v>44228</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>8454720</v>
       </c>
       <c r="D3" s="2"/>
@@ -458,7 +466,7 @@
       <c r="A4" s="3">
         <v>44256</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>7927641.7786796</v>
       </c>
       <c r="D4" s="2"/>
@@ -468,7 +476,7 @@
       <c r="A5" s="3">
         <v>44287</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>9334944</v>
       </c>
       <c r="D5" s="2"/>
@@ -478,7 +486,7 @@
       <c r="A6" s="3">
         <v>44317</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>11240298.9</v>
       </c>
       <c r="D6" s="2"/>
@@ -488,7 +496,7 @@
       <c r="A7" s="3">
         <v>44348</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>9953880.5800000001</v>
       </c>
       <c r="D7" s="2"/>
@@ -498,7 +506,7 @@
       <c r="A8" s="3">
         <v>44378</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>9688156</v>
       </c>
       <c r="D8" s="2"/>
@@ -508,7 +516,7 @@
       <c r="A9" s="3">
         <v>44409</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <v>9953306</v>
       </c>
       <c r="D9" s="2"/>
@@ -518,7 +526,7 @@
       <c r="A10" s="3">
         <v>44440</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>9615500.4737954997</v>
       </c>
       <c r="D10" s="2"/>
@@ -528,7 +536,7 @@
       <c r="A11" s="3">
         <v>44470</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <v>9976637</v>
       </c>
       <c r="D11" s="2"/>
@@ -538,7 +546,7 @@
       <c r="A12" s="3">
         <v>44501</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="4">
         <v>9388925</v>
       </c>
       <c r="D12" s="2"/>
@@ -548,7 +556,7 @@
       <c r="A13" s="3">
         <v>44531</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="4">
         <v>9432804.1960000005</v>
       </c>
       <c r="D13" s="2"/>
@@ -558,7 +566,7 @@
       <c r="A14" s="3">
         <v>44562</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="5">
         <v>9351451.5969999991</v>
       </c>
       <c r="D14" s="2"/>
@@ -568,7 +576,7 @@
       <c r="A15" s="3">
         <v>44593</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="5">
         <v>8617825.7750000004</v>
       </c>
       <c r="D15" s="2"/>
@@ -578,7 +586,7 @@
       <c r="A16" s="3">
         <v>44621</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="5">
         <v>9347162.5769999996</v>
       </c>
       <c r="D16" s="2"/>
@@ -588,7 +596,7 @@
       <c r="A17" s="3">
         <v>44652</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="5">
         <v>9908930.3220000006</v>
       </c>
       <c r="D17" s="2"/>
@@ -598,7 +606,7 @@
       <c r="A18" s="3">
         <v>44682</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="5">
         <v>9742593.9710000008</v>
       </c>
       <c r="D18" s="2"/>
@@ -608,7 +616,7 @@
       <c r="A19" s="3">
         <v>44713</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="5">
         <v>10394478.284</v>
       </c>
       <c r="D19" s="2"/>
@@ -618,7 +626,7 @@
       <c r="A20" s="3">
         <v>44743</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="5">
         <v>10229169.555</v>
       </c>
       <c r="D20" s="2"/>
@@ -628,7 +636,7 @@
       <c r="A21" s="3">
         <v>44774</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="5">
         <v>10318585.634</v>
       </c>
       <c r="D21" s="2"/>
@@ -638,7 +646,7 @@
       <c r="A22" s="3">
         <v>44805</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="5">
         <v>10205788.613</v>
       </c>
       <c r="D22" s="2"/>
@@ -648,7 +656,7 @@
       <c r="A23" s="3">
         <v>44835</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="5">
         <v>9385825.8330000006</v>
       </c>
       <c r="D23" s="2"/>
@@ -658,7 +666,7 @@
       <c r="A24" s="3">
         <v>44866</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="5">
         <v>9303929.4780000001</v>
       </c>
       <c r="D24" s="2"/>
@@ -668,7 +676,7 @@
       <c r="A25" s="3">
         <v>44896</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="5">
         <v>9075712.4069999997</v>
       </c>
       <c r="D25" s="2"/>
@@ -678,7 +686,7 @@
       <c r="A26" s="3">
         <v>44927</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="5">
         <v>9158824.3289999999</v>
       </c>
       <c r="D26" s="2"/>
@@ -688,7 +696,7 @@
       <c r="A27" s="3">
         <v>44958</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="5">
         <v>8535646.2420000006</v>
       </c>
       <c r="D27" s="2"/>
@@ -698,7 +706,7 @@
       <c r="A28" s="3">
         <v>44986</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="5">
         <v>9901972.8540000003</v>
       </c>
       <c r="D28" s="2"/>
@@ -708,7 +716,7 @@
       <c r="A29" s="3">
         <v>45017</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="5">
         <v>10162695.323999999</v>
       </c>
       <c r="D29" s="2"/>
@@ -718,7 +726,7 @@
       <c r="A30" s="3">
         <v>45047</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="5">
         <v>10950164.721000001</v>
       </c>
       <c r="D30" s="2"/>
@@ -728,7 +736,7 @@
       <c r="A31" s="3">
         <v>45078</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="5">
         <v>10536704.25</v>
       </c>
       <c r="D31" s="2"/>
@@ -738,7 +746,7 @@
       <c r="A32" s="3">
         <v>45108</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="5">
         <v>10858969.231000001</v>
       </c>
       <c r="D32" s="2"/>
@@ -748,7 +756,7 @@
       <c r="A33" s="3">
         <v>45139</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="5">
         <v>10882527.481000001</v>
       </c>
       <c r="D33" s="2"/>
@@ -758,7 +766,7 @@
       <c r="A34" s="3">
         <v>45170</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="5">
         <v>10319807.847999999</v>
       </c>
       <c r="D34" s="2"/>
@@ -768,7 +776,7 @@
       <c r="A35" s="3">
         <v>45200</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="5">
         <v>10325667.964</v>
       </c>
       <c r="D35" s="2"/>
@@ -778,7 +786,7 @@
       <c r="A36" s="3">
         <v>45231</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="5">
         <v>9879076.2850000001</v>
       </c>
       <c r="D36" s="2"/>
@@ -788,7 +796,7 @@
       <c r="A37" s="3">
         <v>45261</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="5">
         <v>9946481.9470000006</v>
       </c>
       <c r="D37" s="2"/>
@@ -798,7 +806,7 @@
       <c r="A38" s="3">
         <v>45292</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="5">
         <v>10102355.607999999</v>
       </c>
       <c r="D38" s="2"/>
@@ -808,7 +816,7 @@
       <c r="A39" s="3">
         <v>45323</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="5">
         <v>9702368.9159999993</v>
       </c>
       <c r="D39" s="2"/>
@@ -818,7 +826,7 @@
       <c r="A40" s="3">
         <v>45352</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="5">
         <v>11196720.75</v>
       </c>
       <c r="D40" s="2"/>
@@ -828,7 +836,7 @@
       <c r="A41" s="3">
         <v>45383</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="5">
         <v>11268532.517999999</v>
       </c>
       <c r="D41" s="2"/>
@@ -838,7 +846,7 @@
       <c r="A42" s="3">
         <v>45413</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="5">
         <v>11788952.982000001</v>
       </c>
       <c r="D42" s="2"/>
@@ -848,7 +856,7 @@
       <c r="A43" s="3">
         <v>45444</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="5">
         <v>11090566.686000001</v>
       </c>
       <c r="D43" s="2"/>
